--- a/medicine/Enfance/Marcela_Paz/Marcela_Paz.xlsx
+++ b/medicine/Enfance/Marcela_Paz/Marcela_Paz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcela Paz, née Esther Huneeus Salas de Claro le 28 février 1902 à Santiago du Chili où elle est morte le 12 juin 1985, est une écrivaine chilienne.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle naît dans une famille aisée, deuxième d'une fratrie de huit enfants[1], et effectue des études artistiques, au Chili et à Paris[2]. 
-Son premier ouvrage, Tiempo, papel y lapiz (« Temps, papier crayon »), est un recueil de contes publié en 1933. Elle se choisit le pseudonyme de Marcela Paz : Paz pour sa signification en espagnol (Paix) et Marcela en hommage à la française Marcelle Auclair[2].
-Elle publie en 1947 son premier livre intitulé Papelucho, nom de son personnage le plus connu, un enfant chilien de 9 ans, inventif, créatif,  à la fois sérieux et joyeux face à la vie, ayant tout un monde intérieur[2].
-Elle dirige l'IBBY (en anglais : International Board on Books for Young People, en français : Union internationale pour les livres de jeunesse) de 1964 à 1967. Elle reçoit en 1982 le Prix national de Littérature grâce à sa série de 12 livres pour enfants Papelucho[3].
-Les éditions Marcela Paz SA furent créées par son fils dans la but de pérenniser l'œuvre de sa mère[4].
-Le 28 février 2012, le Google chilien dédicace son doodle à Marcela Paz pour le 110e anniversaire de sa naissance, une date source de controverse car elle serait née en 1903 et non en 1902[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle naît dans une famille aisée, deuxième d'une fratrie de huit enfants, et effectue des études artistiques, au Chili et à Paris. 
+Son premier ouvrage, Tiempo, papel y lapiz (« Temps, papier crayon »), est un recueil de contes publié en 1933. Elle se choisit le pseudonyme de Marcela Paz : Paz pour sa signification en espagnol (Paix) et Marcela en hommage à la française Marcelle Auclair.
+Elle publie en 1947 son premier livre intitulé Papelucho, nom de son personnage le plus connu, un enfant chilien de 9 ans, inventif, créatif,  à la fois sérieux et joyeux face à la vie, ayant tout un monde intérieur.
+Elle dirige l'IBBY (en anglais : International Board on Books for Young People, en français : Union internationale pour les livres de jeunesse) de 1964 à 1967. Elle reçoit en 1982 le Prix national de Littérature grâce à sa série de 12 livres pour enfants Papelucho.
+Les éditions Marcela Paz SA furent créées par son fils dans la but de pérenniser l'œuvre de sa mère.
+Le 28 février 2012, le Google chilien dédicace son doodle à Marcela Paz pour le 110e anniversaire de sa naissance, une date source de controverse car elle serait née en 1903 et non en 1902.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tiempo, papel y lápiz, 1933.
@@ -600,7 +616,9 @@
           <t>Publications en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Papelucho, traduit du chilien par Jean-Paul Duviols, illustrations de Yola, Pocket Jeunesse, 1997.
 Papelucho, traduit du chilien par Jean-Paul Duviols, illustrations de Morgan, éditions Bordas , 1980.</t>
@@ -631,9 +649,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1968 : (international) « Honor List »[8], de l' IBBY, pour Papelucho misionero
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1968 : (international) « Honor List », de l' IBBY, pour Papelucho misionero
 1982 : Prix national de Littérature pour sa série jeunesse Papelucho</t>
         </is>
       </c>
